--- a/DivinationApp/bin/Debug/ExplanationData/その他/陽占特徴説明.xlsx
+++ b/DivinationApp/bin/Debug/ExplanationData/その他/陽占特徴説明.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\桑原さんソフト\GitHub\sample_4.8\DivinationApp_pdf\DivinationApp\bin\Debug\ExplanationData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Development\桑原さんソフト\GitHub\DivinationApp_pdf\DivinationApp\bin\Debug\ExplanationData\その他\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D479DDF4-85F0-4919-A50F-7D123DEC2972}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AF30DA6-4743-4397-9801-24BDBCCB255F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="450" yWindow="570" windowWidth="26760" windowHeight="16830" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2715" yWindow="0" windowWidth="21600" windowHeight="12735" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet0" sheetId="1" r:id="rId1"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>推逆局</t>
     <rPh sb="0" eb="1">
@@ -116,6 +116,13 @@
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>テキストデータです。
+あああああああああああああああああああああｂｂｂｂｂｂｂｂｂｂｂｂｂｂｂｂｂｂｂｂｂｂｂｂｂｂｂｂｂｂｂｂｂｂｂｂＣＣＣＣＣＣＣＣＣＣＣＣＣＣＣＣＣＣＣＣＣＣＣＣＣＣＣＣＣＣＣＣＣ
+ＡＡＡＡＡＡＡＡＡＡＡＡＡＡＡＡＡＡＡＡＡＡＡＡＡＡＡＡＡＡＡ
+ＢＢＢＢＢＢＢＢＢＢＢＢＢＢＢＢＢＢＢＢＢＢＢＢＢＢＢＢ</t>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
@@ -160,7 +167,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -170,6 +177,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -503,15 +513,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>123825</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>466725</xdr:rowOff>
+      <xdr:colOff>297007</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>224271</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2852511</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1775663</xdr:rowOff>
+      <xdr:colOff>3025693</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1533209</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -534,7 +544,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4610100" y="9648825"/>
+          <a:off x="4782416" y="9385589"/>
           <a:ext cx="2728686" cy="1308938"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1046,16 +1056,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>314325</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>2219613</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>1657537</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>314324</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2410113</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>1657536</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1078,7 +1088,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10563225" y="9496425"/>
+          <a:off x="4828309" y="11657733"/>
           <a:ext cx="2067213" cy="1343212"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2008,10 +2018,10 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:A8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2025,42 +2035,45 @@
     <col min="7" max="22" width="44.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" ht="147.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="132" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" ht="132" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" ht="171.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
+      <c r="E6" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:1" ht="165" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" ht="165" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="135" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
